--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="87">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -305,6 +305,39 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,   E.%Knick%null%1,   G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,  Bartels%CL%coreGivesNoEmail%1,  Bauer%R%coreGivesNoEmail%1,  Brevoort%P%coreGivesNoEmail%1,  Brinkeborn%RM%coreGivesNoEmail%1,  Carr%RJ%coreGivesNoEmail%1,  Ernst%E%coreGivesNoEmail%1,  Giles%JT%coreGivesNoEmail%1,  Hoheisel%D%coreGivesNoEmail%1,  Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,  Muller-Jakic%B%coreGivesNoEmail%1,  Stimpel%M%coreGivesNoEmail%1,  Turner%RB%coreGivesNoEmail%1,  Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%2,    Hans-Helge%Müller%null%1,  Wolfram%Grimm%null%0,  Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,   Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,   Andrea%Lourie%NULL%1,   John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,   R.%Schoop%NULL%1,   A.%Suter%NULL%1,   P.%Klein%NULL%1,   R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,   R. A.%Lea%NULL%1,   S. S.%Wee%NULL%1,   M. M.%Hanna%NULL%1,   L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,   Leena P.%Shah%NULL%1,   Richard D.%Gilbert%NULL%1,   Thomas W.%Ritchey%NULL%1,   Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%2,    E.%Knick%null%1,    G.%Lewith%null%1,  M.%Dorn%null%0,  E.%Knick%null%1,  G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -624,6 +657,9 @@
       <c r="H1" t="s">
         <v>30</v>
       </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -642,13 +678,16 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -676,6 +715,9 @@
       <c r="H3" t="s">
         <v>31</v>
       </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -691,16 +733,19 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -720,13 +765,16 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -754,6 +802,9 @@
       <c r="H6" t="s">
         <v>31</v>
       </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -780,6 +831,9 @@
       <c r="H7" t="s">
         <v>31</v>
       </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -795,7 +849,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -805,6 +859,9 @@
       </c>
       <c r="H8" t="s">
         <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -832,6 +889,9 @@
       <c r="H9" t="s">
         <v>31</v>
       </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -858,6 +918,9 @@
       <c r="H10" t="s">
         <v>31</v>
       </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -873,7 +936,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -883,6 +946,9 @@
       </c>
       <c r="H11" t="s">
         <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12">
@@ -899,7 +965,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -909,6 +975,9 @@
       </c>
       <c r="H12" t="s">
         <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -925,7 +994,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -935,6 +1004,9 @@
       </c>
       <c r="H13" t="s">
         <v>53</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -962,6 +1034,9 @@
       <c r="H14" t="s">
         <v>31</v>
       </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -977,7 +1052,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -987,6 +1062,9 @@
       </c>
       <c r="H15" t="s">
         <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -1006,13 +1084,16 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
         <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -1040,6 +1121,9 @@
       <c r="H17" t="s">
         <v>31</v>
       </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -1055,7 +1139,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
@@ -1065,6 +1149,9 @@
       </c>
       <c r="H18" t="s">
         <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="115">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -338,6 +338,90 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%2,    E.%Knick%null%1,    G.%Lewith%null%1,  M.%Dorn%null%0,  E.%Knick%null%1,  G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,   Bartels%CL%coreGivesNoEmail%1,   Bauer%R%coreGivesNoEmail%1,   Brevoort%P%coreGivesNoEmail%1,   Brinkeborn%RM%coreGivesNoEmail%1,   Carr%RJ%coreGivesNoEmail%1,   Ernst%E%coreGivesNoEmail%1,   Giles%JT%coreGivesNoEmail%1,   Hoheisel%D%coreGivesNoEmail%1,   Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,   Muller-Jakic%B%coreGivesNoEmail%1,   Stimpel%M%coreGivesNoEmail%1,   Turner%RB%coreGivesNoEmail%1,   Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,     Hans-Helge%Müller%null%1,   Wolfram%Grimm%null%1,   Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,    Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,    Andrea%Lourie%NULL%1,    John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,    R.%Schoop%NULL%1,    A.%Suter%NULL%1,    P.%Klein%NULL%1,    R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,    R. A.%Lea%NULL%1,    S. S.%Wee%NULL%1,    M. M.%Hanna%NULL%1,    L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,    Leena P.%Shah%NULL%1,    Richard D.%Gilbert%NULL%1,    Thomas W.%Ritchey%NULL%1,    Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,     E.%Knick%null%1,     G.%Lewith%null%1,   M.%Dorn%null%1,   E.%Knick%null%1,   G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,    Bartels%CL%coreGivesNoEmail%1,    Bauer%R%coreGivesNoEmail%1,    Brevoort%P%coreGivesNoEmail%1,    Brinkeborn%RM%coreGivesNoEmail%1,    Carr%RJ%coreGivesNoEmail%1,    Ernst%E%coreGivesNoEmail%1,    Giles%JT%coreGivesNoEmail%1,    Hoheisel%D%coreGivesNoEmail%1,    Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,    Muller-Jakic%B%coreGivesNoEmail%1,    Stimpel%M%coreGivesNoEmail%1,    Turner%RB%coreGivesNoEmail%1,    Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,      Hans-Helge%Müller%null%1,    Wolfram%Grimm%null%1,    Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,     Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,     Andrea%Lourie%NULL%1,     John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,     R.%Schoop%NULL%1,     A.%Suter%NULL%1,     P.%Klein%NULL%1,     R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,     R. A.%Lea%NULL%1,     S. S.%Wee%NULL%1,     M. M.%Hanna%NULL%1,     L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,     Leena P.%Shah%NULL%1,     Richard D.%Gilbert%NULL%1,     Thomas W.%Ritchey%NULL%1,     Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,      E.%Knick%null%1,      G.%Lewith%null%1,    M.%Dorn%null%1,    E.%Knick%null%1,    G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,     Bartels%CL%coreGivesNoEmail%1,     Bauer%R%coreGivesNoEmail%1,     Brevoort%P%coreGivesNoEmail%1,     Brinkeborn%RM%coreGivesNoEmail%1,     Carr%RJ%coreGivesNoEmail%1,     Ernst%E%coreGivesNoEmail%1,     Giles%JT%coreGivesNoEmail%1,     Hoheisel%D%coreGivesNoEmail%1,     Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,     Muller-Jakic%B%coreGivesNoEmail%1,     Stimpel%M%coreGivesNoEmail%1,     Turner%RB%coreGivesNoEmail%1,     Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,       Hans-Helge%Müller%null%1,     Wolfram%Grimm%null%1,     Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,      Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,      Andrea%Lourie%NULL%1,      John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,      R.%Schoop%NULL%1,      A.%Suter%NULL%1,      P.%Klein%NULL%1,      R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,      R. A.%Lea%NULL%1,      S. S.%Wee%NULL%1,      M. M.%Hanna%NULL%1,      L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,      Leena P.%Shah%NULL%1,      Richard D.%Gilbert%NULL%1,      Thomas W.%Ritchey%NULL%1,      Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,       E.%Knick%null%1,       G.%Lewith%null%1,     M.%Dorn%null%1,     E.%Knick%null%1,     G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,      Bartels%CL%coreGivesNoEmail%1,      Bauer%R%coreGivesNoEmail%1,      Brevoort%P%coreGivesNoEmail%1,      Brinkeborn%RM%coreGivesNoEmail%1,      Carr%RJ%coreGivesNoEmail%1,      Ernst%E%coreGivesNoEmail%1,      Giles%JT%coreGivesNoEmail%1,      Hoheisel%D%coreGivesNoEmail%1,      Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,      Muller-Jakic%B%coreGivesNoEmail%1,      Stimpel%M%coreGivesNoEmail%1,      Turner%RB%coreGivesNoEmail%1,      Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,        Hans-Helge%Müller%null%1,      Wolfram%Grimm%null%1,      Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,       Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,       Andrea%Lourie%NULL%1,       John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,       R.%Schoop%NULL%1,       A.%Suter%NULL%1,       P.%Klein%NULL%1,       R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,       R. A.%Lea%NULL%1,       S. S.%Wee%NULL%1,       M. M.%Hanna%NULL%1,       L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,       Leena P.%Shah%NULL%1,       Richard D.%Gilbert%NULL%1,       Thomas W.%Ritchey%NULL%1,       Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,        E.%Knick%null%1,        G.%Lewith%null%1,      M.%Dorn%null%1,      E.%Knick%null%1,      G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -733,13 +817,13 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -849,7 +933,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -936,7 +1020,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -965,7 +1049,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -994,7 +1078,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1052,7 +1136,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1139,7 +1223,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="153">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -422,6 +422,120 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,        E.%Knick%null%1,        G.%Lewith%null%1,      M.%Dorn%null%1,      E.%Knick%null%1,      G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>"Echinacea purpurea Therapy for the Treatment of the Common Cold"</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1, Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-10</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,       Bartels%CL%coreGivesNoEmail%1,       Bauer%R%coreGivesNoEmail%1,       Brevoort%P%coreGivesNoEmail%1,       Brinkeborn%RM%coreGivesNoEmail%1,       Carr%RJ%coreGivesNoEmail%1,       Ernst%E%coreGivesNoEmail%1,       Giles%JT%coreGivesNoEmail%1,       Hoheisel%D%coreGivesNoEmail%1,       Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,       Muller-Jakic%B%coreGivesNoEmail%1,       Stimpel%M%coreGivesNoEmail%1,       Turner%RB%coreGivesNoEmail%1,       Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>"Treatment of the Common Cold with Unrefined Echinacea"</t>
+  </si>
+  <si>
+    <t>[Bruce P.%Barrett%xref no email%2]</t>
+  </si>
+  <si>
+    <t>2023-05-12</t>
+  </si>
+  <si>
+    <t>"The Efficacy of Echinacea Compound Herbal Tea Preparation on the Severity and Duration of Upper Respiratory and Flu Symptoms: A Randomized, Double-Blind Placebo-Controlled Study"</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1, Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,         Hans-Helge%Müller%null%1,       Wolfram%Grimm%null%1,       Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>"Echinacea Root Extracts for the Prevention of Upper Respiratory Tract Infections: A Double-blind, Placebo-Controlled Randomized Trial"</t>
+  </si>
+  <si>
+    <t>[D.%Melchart%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-17</t>
+  </si>
+  <si>
+    <t>"Echinacea Purpurea and Mucosal Immunity"</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1, M.%Fahlman%xref no email%1, H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-04-25</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,        Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,        Andrea%Lourie%NULL%1,        John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,        R.%Schoop%NULL%1,        A.%Suter%NULL%1,        P.%Klein%NULL%1,        R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,        R. A.%Lea%NULL%1,        S. S.%Wee%NULL%1,        M. M.%Hanna%NULL%1,        L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>"An Evaluation of&lt;i&gt;Echinacea angustifolia&lt;\/i&gt;in Experimental Rhinovirus Infections"</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1, Rudolf%Bauer%xref no email%1, Karin%Woelkart%xref no email%1, Thomas C.%Hulsey%xref no email%1, J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,        Leena P.%Shah%NULL%1,        Richard D.%Gilbert%NULL%1,        Thomas W.%Ritchey%NULL%1,        Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bruce P.%Barrett%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,         E.%Knick%null%1,         G.%Lewith%null%1,       M.%Dorn%null%1,       E.%Knick%null%1,       G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1,  Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,        Bartels%CL%coreGivesNoEmail%1,        Bauer%R%coreGivesNoEmail%1,        Brevoort%P%coreGivesNoEmail%1,        Brinkeborn%RM%coreGivesNoEmail%1,        Carr%RJ%coreGivesNoEmail%1,        Ernst%E%coreGivesNoEmail%1,        Giles%JT%coreGivesNoEmail%1,        Hoheisel%D%coreGivesNoEmail%1,        Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,        Muller-Jakic%B%coreGivesNoEmail%1,        Stimpel%M%coreGivesNoEmail%1,        Turner%RB%coreGivesNoEmail%1,        Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1,  Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,          Hans-Helge%Müller%null%1,        Wolfram%Grimm%null%1,        Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1,  M.%Fahlman%xref no email%1,  H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,         Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,         Andrea%Lourie%NULL%1,         John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,         R.%Schoop%NULL%1,         A.%Suter%NULL%1,         P.%Klein%NULL%1,         R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,         R. A.%Lea%NULL%1,         S. S.%Wee%NULL%1,         M. M.%Hanna%NULL%1,         L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1,  Rudolf%Bauer%xref no email%1,  Karin%Woelkart%xref no email%1,  Thomas C.%Hulsey%xref no email%1,  J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,         Leena P.%Shah%NULL%1,         Richard D.%Gilbert%NULL%1,         Thomas W.%Ritchey%NULL%1,         Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,          E.%Knick%null%1,          G.%Lewith%null%1,        M.%Dorn%null%1,        E.%Knick%null%1,        G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -782,22 +896,22 @@
         <v>38152.0</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
         <v>77</v>
@@ -817,7 +931,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -869,22 +983,22 @@
         <v>37607.0</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I6" t="s">
         <v>77</v>
@@ -898,22 +1012,22 @@
         <v>36739.0</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
@@ -933,7 +1047,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -956,22 +1070,22 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I9" t="s">
         <v>77</v>
@@ -985,22 +1099,22 @@
         <v>39326.0</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
         <v>77</v>
@@ -1020,7 +1134,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -1049,7 +1163,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1078,7 +1192,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1101,22 +1215,22 @@
         <v>38561.0</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="I14" t="s">
         <v>77</v>
@@ -1136,7 +1250,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1188,22 +1302,22 @@
         <v>37607.0</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="I17" t="s">
         <v>77</v>
@@ -1223,7 +1337,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="175">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -536,6 +536,72 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,          E.%Knick%null%1,          G.%Lewith%null%1,        M.%Dorn%null%1,        E.%Knick%null%1,        G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1,   Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,         Bartels%CL%coreGivesNoEmail%1,         Bauer%R%coreGivesNoEmail%1,         Brevoort%P%coreGivesNoEmail%1,         Brinkeborn%RM%coreGivesNoEmail%1,         Carr%RJ%coreGivesNoEmail%1,         Ernst%E%coreGivesNoEmail%1,         Giles%JT%coreGivesNoEmail%1,         Hoheisel%D%coreGivesNoEmail%1,         Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,         Muller-Jakic%B%coreGivesNoEmail%1,         Stimpel%M%coreGivesNoEmail%1,         Turner%RB%coreGivesNoEmail%1,         Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1,   Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,           Hans-Helge%Müller%null%1,         Wolfram%Grimm%null%1,         Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1,   M.%Fahlman%xref no email%1,   H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,          Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,          Andrea%Lourie%NULL%1,          John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,          R.%Schoop%NULL%1,          A.%Suter%NULL%1,          P.%Klein%NULL%1,          R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,          R. A.%Lea%NULL%1,          S. S.%Wee%NULL%1,          M. M.%Hanna%NULL%1,          L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1,   Rudolf%Bauer%xref no email%1,   Karin%Woelkart%xref no email%1,   Thomas C.%Hulsey%xref no email%1,   J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,          Leena P.%Shah%NULL%1,          Richard D.%Gilbert%NULL%1,          Thomas W.%Ritchey%NULL%1,          Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,           E.%Knick%null%1,           G.%Lewith%null%1,         M.%Dorn%null%1,         E.%Knick%null%1,         G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1,    Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,          Bartels%CL%coreGivesNoEmail%1,          Bauer%R%coreGivesNoEmail%1,          Brevoort%P%coreGivesNoEmail%1,          Brinkeborn%RM%coreGivesNoEmail%1,          Carr%RJ%coreGivesNoEmail%1,          Ernst%E%coreGivesNoEmail%1,          Giles%JT%coreGivesNoEmail%1,          Hoheisel%D%coreGivesNoEmail%1,          Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,          Muller-Jakic%B%coreGivesNoEmail%1,          Stimpel%M%coreGivesNoEmail%1,          Turner%RB%coreGivesNoEmail%1,          Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1,    Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,            Hans-Helge%Müller%null%1,          Wolfram%Grimm%null%1,          Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1,    M.%Fahlman%xref no email%1,    H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,           Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,           Andrea%Lourie%NULL%1,           John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,           R.%Schoop%NULL%1,           A.%Suter%NULL%1,           P.%Klein%NULL%1,           R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,           R. A.%Lea%NULL%1,           S. S.%Wee%NULL%1,           M. M.%Hanna%NULL%1,           L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1,    Rudolf%Bauer%xref no email%1,    Karin%Woelkart%xref no email%1,    Thomas C.%Hulsey%xref no email%1,    J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,           Leena P.%Shah%NULL%1,           Richard D.%Gilbert%NULL%1,           Thomas W.%Ritchey%NULL%1,           Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,            E.%Knick%null%1,            G.%Lewith%null%1,          M.%Dorn%null%1,          E.%Knick%null%1,          G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -902,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -931,7 +997,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1018,7 +1084,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1047,7 +1113,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1105,7 +1171,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1134,7 +1200,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -1163,7 +1229,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1192,7 +1258,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1221,7 +1287,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1250,7 +1316,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1337,7 +1403,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="197">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -602,6 +602,72 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,            E.%Knick%null%1,            G.%Lewith%null%1,          M.%Dorn%null%1,          E.%Knick%null%1,          G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1,     Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,           Bartels%CL%coreGivesNoEmail%1,           Bauer%R%coreGivesNoEmail%1,           Brevoort%P%coreGivesNoEmail%1,           Brinkeborn%RM%coreGivesNoEmail%1,           Carr%RJ%coreGivesNoEmail%1,           Ernst%E%coreGivesNoEmail%1,           Giles%JT%coreGivesNoEmail%1,           Hoheisel%D%coreGivesNoEmail%1,           Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,           Muller-Jakic%B%coreGivesNoEmail%1,           Stimpel%M%coreGivesNoEmail%1,           Turner%RB%coreGivesNoEmail%1,           Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1,     Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,             Hans-Helge%Müller%null%1,           Wolfram%Grimm%null%1,           Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1,     M.%Fahlman%xref no email%1,     H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,            Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,            Andrea%Lourie%NULL%1,            John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,            R.%Schoop%NULL%1,            A.%Suter%NULL%1,            P.%Klein%NULL%1,            R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,            R. A.%Lea%NULL%1,            S. S.%Wee%NULL%1,            M. M.%Hanna%NULL%1,            L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1,     Rudolf%Bauer%xref no email%1,     Karin%Woelkart%xref no email%1,     Thomas C.%Hulsey%xref no email%1,     J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,            Leena P.%Shah%NULL%1,            Richard D.%Gilbert%NULL%1,            Thomas W.%Ritchey%NULL%1,            Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,             E.%Knick%null%1,             G.%Lewith%null%1,           M.%Dorn%null%1,           E.%Knick%null%1,           G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1,      Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,            Bartels%CL%coreGivesNoEmail%1,            Bauer%R%coreGivesNoEmail%1,            Brevoort%P%coreGivesNoEmail%1,            Brinkeborn%RM%coreGivesNoEmail%1,            Carr%RJ%coreGivesNoEmail%1,            Ernst%E%coreGivesNoEmail%1,            Giles%JT%coreGivesNoEmail%1,            Hoheisel%D%coreGivesNoEmail%1,            Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,            Muller-Jakic%B%coreGivesNoEmail%1,            Stimpel%M%coreGivesNoEmail%1,            Turner%RB%coreGivesNoEmail%1,            Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1,      Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,              Hans-Helge%Müller%null%1,            Wolfram%Grimm%null%1,            Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1,      M.%Fahlman%xref no email%1,      H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,             Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,             Andrea%Lourie%NULL%1,             John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,             R.%Schoop%NULL%1,             A.%Suter%NULL%1,             P.%Klein%NULL%1,             R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,             R. A.%Lea%NULL%1,             S. S.%Wee%NULL%1,             M. M.%Hanna%NULL%1,             L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1,      Rudolf%Bauer%xref no email%1,      Karin%Woelkart%xref no email%1,      Thomas C.%Hulsey%xref no email%1,      J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,             Leena P.%Shah%NULL%1,             Richard D.%Gilbert%NULL%1,             Thomas W.%Ritchey%NULL%1,             Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,              E.%Knick%null%1,              G.%Lewith%null%1,            M.%Dorn%null%1,            E.%Knick%null%1,            G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1034,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -997,7 +1063,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1084,7 +1150,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1113,7 +1179,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1171,7 +1237,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1200,7 +1266,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -1229,7 +1295,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1258,7 +1324,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1287,7 +1353,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1316,7 +1382,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1403,7 +1469,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="208">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -668,6 +668,39 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,              E.%Knick%null%1,              G.%Lewith%null%1,            M.%Dorn%null%1,            E.%Knick%null%1,            G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1,       Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,             Bartels%CL%coreGivesNoEmail%1,             Bauer%R%coreGivesNoEmail%1,             Brevoort%P%coreGivesNoEmail%1,             Brinkeborn%RM%coreGivesNoEmail%1,             Carr%RJ%coreGivesNoEmail%1,             Ernst%E%coreGivesNoEmail%1,             Giles%JT%coreGivesNoEmail%1,             Hoheisel%D%coreGivesNoEmail%1,             Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,             Muller-Jakic%B%coreGivesNoEmail%1,             Stimpel%M%coreGivesNoEmail%1,             Turner%RB%coreGivesNoEmail%1,             Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1,       Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,               Hans-Helge%Müller%null%1,             Wolfram%Grimm%null%1,             Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1,       M.%Fahlman%xref no email%1,       H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,              Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,              Andrea%Lourie%NULL%1,              John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,              R.%Schoop%NULL%1,              A.%Suter%NULL%1,              P.%Klein%NULL%1,              R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,              R. A.%Lea%NULL%1,              S. S.%Wee%NULL%1,              M. M.%Hanna%NULL%1,              L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1,       Rudolf%Bauer%xref no email%1,       Karin%Woelkart%xref no email%1,       Thomas C.%Hulsey%xref no email%1,       J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,              Leena P.%Shah%NULL%1,              Richard D.%Gilbert%NULL%1,              Thomas W.%Ritchey%NULL%1,              Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,               E.%Knick%null%1,               G.%Lewith%null%1,             M.%Dorn%null%1,             E.%Knick%null%1,             G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1067,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1063,7 +1096,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1150,7 +1183,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1179,7 +1212,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1237,7 +1270,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1266,7 +1299,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -1295,7 +1328,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1324,7 +1357,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1353,7 +1386,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1382,7 +1415,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1469,7 +1502,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="219">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -701,6 +701,39 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,               E.%Knick%null%1,               G.%Lewith%null%1,             M.%Dorn%null%1,             E.%Knick%null%1,             G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1,        Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,              Bartels%CL%coreGivesNoEmail%1,              Bauer%R%coreGivesNoEmail%1,              Brevoort%P%coreGivesNoEmail%1,              Brinkeborn%RM%coreGivesNoEmail%1,              Carr%RJ%coreGivesNoEmail%1,              Ernst%E%coreGivesNoEmail%1,              Giles%JT%coreGivesNoEmail%1,              Hoheisel%D%coreGivesNoEmail%1,              Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,              Muller-Jakic%B%coreGivesNoEmail%1,              Stimpel%M%coreGivesNoEmail%1,              Turner%RB%coreGivesNoEmail%1,              Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1,        Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                Hans-Helge%Müller%null%1,              Wolfram%Grimm%null%1,              Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1,        M.%Fahlman%xref no email%1,        H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,               Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,               Andrea%Lourie%NULL%1,               John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,               R.%Schoop%NULL%1,               A.%Suter%NULL%1,               P.%Klein%NULL%1,               R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,               R. A.%Lea%NULL%1,               S. S.%Wee%NULL%1,               M. M.%Hanna%NULL%1,               L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1,        Rudolf%Bauer%xref no email%1,        Karin%Woelkart%xref no email%1,        Thomas C.%Hulsey%xref no email%1,        J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,               Leena P.%Shah%NULL%1,               Richard D.%Gilbert%NULL%1,               Thomas W.%Ritchey%NULL%1,               Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                E.%Knick%null%1,                G.%Lewith%null%1,              M.%Dorn%null%1,              E.%Knick%null%1,              G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1100,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1096,7 +1129,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1183,7 +1216,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1212,7 +1245,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1270,7 +1303,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1299,7 +1332,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -1328,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1357,7 +1390,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1386,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1415,7 +1448,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1502,7 +1535,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="241">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -734,6 +734,72 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,                E.%Knick%null%1,                G.%Lewith%null%1,              M.%Dorn%null%1,              E.%Knick%null%1,              G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1,         Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,               Bartels%CL%coreGivesNoEmail%1,               Bauer%R%coreGivesNoEmail%1,               Brevoort%P%coreGivesNoEmail%1,               Brinkeborn%RM%coreGivesNoEmail%1,               Carr%RJ%coreGivesNoEmail%1,               Ernst%E%coreGivesNoEmail%1,               Giles%JT%coreGivesNoEmail%1,               Hoheisel%D%coreGivesNoEmail%1,               Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,               Muller-Jakic%B%coreGivesNoEmail%1,               Stimpel%M%coreGivesNoEmail%1,               Turner%RB%coreGivesNoEmail%1,               Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1,         Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                 Hans-Helge%Müller%null%1,               Wolfram%Grimm%null%1,               Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1,         M.%Fahlman%xref no email%1,         H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                Andrea%Lourie%NULL%1,                John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                R.%Schoop%NULL%1,                A.%Suter%NULL%1,                P.%Klein%NULL%1,                R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                R. A.%Lea%NULL%1,                S. S.%Wee%NULL%1,                M. M.%Hanna%NULL%1,                L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1,         Rudolf%Bauer%xref no email%1,         Karin%Woelkart%xref no email%1,         Thomas C.%Hulsey%xref no email%1,         J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                Leena P.%Shah%NULL%1,                Richard D.%Gilbert%NULL%1,                Thomas W.%Ritchey%NULL%1,                Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                 E.%Knick%null%1,                 G.%Lewith%null%1,               M.%Dorn%null%1,               E.%Knick%null%1,               G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1,          Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,                Bartels%CL%coreGivesNoEmail%1,                Bauer%R%coreGivesNoEmail%1,                Brevoort%P%coreGivesNoEmail%1,                Brinkeborn%RM%coreGivesNoEmail%1,                Carr%RJ%coreGivesNoEmail%1,                Ernst%E%coreGivesNoEmail%1,                Giles%JT%coreGivesNoEmail%1,                Hoheisel%D%coreGivesNoEmail%1,                Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,                Muller-Jakic%B%coreGivesNoEmail%1,                Stimpel%M%coreGivesNoEmail%1,                Turner%RB%coreGivesNoEmail%1,                Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1,          Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                  Hans-Helge%Müller%null%1,                Wolfram%Grimm%null%1,                Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1,          M.%Fahlman%xref no email%1,          H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                 Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                 Andrea%Lourie%NULL%1,                 John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                 R.%Schoop%NULL%1,                 A.%Suter%NULL%1,                 P.%Klein%NULL%1,                 R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                 R. A.%Lea%NULL%1,                 S. S.%Wee%NULL%1,                 M. M.%Hanna%NULL%1,                 L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1,          Rudolf%Bauer%xref no email%1,          Karin%Woelkart%xref no email%1,          Thomas C.%Hulsey%xref no email%1,          J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                 Leena P.%Shah%NULL%1,                 Richard D.%Gilbert%NULL%1,                 Thomas W.%Ritchey%NULL%1,                 Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                  E.%Knick%null%1,                  G.%Lewith%null%1,                M.%Dorn%null%1,                E.%Knick%null%1,                G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1166,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1129,7 +1195,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1216,7 +1282,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1245,7 +1311,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1303,7 +1369,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1332,7 +1398,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -1361,7 +1427,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1390,7 +1456,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1419,7 +1485,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1448,7 +1514,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1535,7 +1601,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="252">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -800,6 +800,39 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,                  E.%Knick%null%1,                  G.%Lewith%null%1,                M.%Dorn%null%1,                E.%Knick%null%1,                G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1,           Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,                 Bartels%CL%coreGivesNoEmail%1,                 Bauer%R%coreGivesNoEmail%1,                 Brevoort%P%coreGivesNoEmail%1,                 Brinkeborn%RM%coreGivesNoEmail%1,                 Carr%RJ%coreGivesNoEmail%1,                 Ernst%E%coreGivesNoEmail%1,                 Giles%JT%coreGivesNoEmail%1,                 Hoheisel%D%coreGivesNoEmail%1,                 Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,                 Muller-Jakic%B%coreGivesNoEmail%1,                 Stimpel%M%coreGivesNoEmail%1,                 Turner%RB%coreGivesNoEmail%1,                 Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1,           Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                   Hans-Helge%Müller%null%1,                 Wolfram%Grimm%null%1,                 Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1,           M.%Fahlman%xref no email%1,           H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                  Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                  Andrea%Lourie%NULL%1,                  John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                  R.%Schoop%NULL%1,                  A.%Suter%NULL%1,                  P.%Klein%NULL%1,                  R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                  R. A.%Lea%NULL%1,                  S. S.%Wee%NULL%1,                  M. M.%Hanna%NULL%1,                  L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1,           Rudolf%Bauer%xref no email%1,           Karin%Woelkart%xref no email%1,           Thomas C.%Hulsey%xref no email%1,           J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                  Leena P.%Shah%NULL%1,                  Richard D.%Gilbert%NULL%1,                  Thomas W.%Ritchey%NULL%1,                  Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                   E.%Knick%null%1,                   G.%Lewith%null%1,                 M.%Dorn%null%1,                 E.%Knick%null%1,                 G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1199,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1195,7 +1228,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1282,7 +1315,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1311,7 +1344,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1369,7 +1402,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1398,7 +1431,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -1427,7 +1460,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1456,7 +1489,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1485,7 +1518,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1514,7 +1547,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1601,7 +1634,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2397" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="273">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -833,6 +833,69 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,                   E.%Knick%null%1,                   G.%Lewith%null%1,                 M.%Dorn%null%1,                 E.%Knick%null%1,                 G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>"A proprietary extract from the echinacea plant (Echinacea purpurea) enhances systemic immune response during a common cold"</t>
+  </si>
+  <si>
+    <t>[Vinti%Goel%xref no email%1, Ray%Lovlin%xref no email%1, Chuck%Chang%xref no email%1, Jan V.%Slama%xref no email%1, Richard%Barton%xref no email%1, Roland%Gahler%xref no email%1, R.%Bauer%xref no email%1, L.%Goonewardene%xref no email%1, Tapan K.%Basu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1,            Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,                  Bartels%CL%coreGivesNoEmail%1,                  Bauer%R%coreGivesNoEmail%1,                  Brevoort%P%coreGivesNoEmail%1,                  Brinkeborn%RM%coreGivesNoEmail%1,                  Carr%RJ%coreGivesNoEmail%1,                  Ernst%E%coreGivesNoEmail%1,                  Giles%JT%coreGivesNoEmail%1,                  Hoheisel%D%coreGivesNoEmail%1,                  Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,                  Muller-Jakic%B%coreGivesNoEmail%1,                  Stimpel%M%coreGivesNoEmail%1,                  Turner%RB%coreGivesNoEmail%1,                  Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>"Efficacy of Echinacea purpurea in Patients with a Common Cold"</t>
+  </si>
+  <si>
+    <t>[Brigitte%Schulten%xref no email%1, Michael%Bulitta%xref no email%1, Brigitta%Ballering-Br\u00fchl%xref no email%1, Ulrike%K\u00f6ster%xref no email%1, Michael%Sch\u00e4fer%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1,            Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                    Hans-Helge%Müller%null%1,                  Wolfram%Grimm%null%1,                  Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1,            M.%Fahlman%xref no email%1,            H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                   Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                   Andrea%Lourie%NULL%1,                   John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                   R.%Schoop%NULL%1,                   A.%Suter%NULL%1,                   P.%Klein%NULL%1,                   R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                   R. A.%Lea%NULL%1,                   S. S.%Wee%NULL%1,                   M. M.%Hanna%NULL%1,                   L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1,            Rudolf%Bauer%xref no email%1,            Karin%Woelkart%xref no email%1,            Thomas C.%Hulsey%xref no email%1,            J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                   Leena P.%Shah%NULL%1,                   Richard D.%Gilbert%NULL%1,                   Thomas W.%Ritchey%NULL%1,                   Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Echinacea purpurea along with zinc, selenium and vitamin C to alleviate exacerbations of chronic obstructive pulmonary disease: results from a randomized controlled trial"</t>
+  </si>
+  <si>
+    <t>[F.%Isbaniah%xref no email%1, W. H.%Wiyono%xref no email%1, F.%Yunus%xref no email%1, A.%Setiawati%xref no email%1, U.%Totzke%xref no email%1, M. A.%Verbruggen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                    E.%Knick%null%1,                    G.%Lewith%null%1,                  M.%Dorn%null%1,                  E.%Knick%null%1,                  G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1164,22 +1227,22 @@
         <v>38565.0</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="I2" t="s">
         <v>77</v>
@@ -1199,7 +1262,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1211,7 +1274,7 @@
         <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4">
@@ -1228,7 +1291,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1240,7 +1303,7 @@
         <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5">
@@ -1251,22 +1314,22 @@
         <v>2001.0</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="I5" t="s">
         <v>77</v>
@@ -1298,7 +1361,7 @@
         <v>122</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7">
@@ -1315,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1327,7 +1390,7 @@
         <v>125</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8">
@@ -1344,7 +1407,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1356,7 +1419,7 @@
         <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1448,7 @@
         <v>129</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
@@ -1402,7 +1465,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1414,7 +1477,7 @@
         <v>132</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11">
@@ -1431,7 +1494,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -1443,7 +1506,7 @@
         <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1523,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1472,7 +1535,7 @@
         <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13">
@@ -1489,7 +1552,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1501,7 +1564,7 @@
         <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14">
@@ -1518,7 +1581,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1530,7 +1593,7 @@
         <v>138</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15">
@@ -1547,7 +1610,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1559,7 +1622,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16">
@@ -1570,22 +1633,22 @@
         <v>40817.0</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>270</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="I16" t="s">
         <v>77</v>
@@ -1617,7 +1680,7 @@
         <v>122</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18">
@@ -1634,7 +1697,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
@@ -1646,7 +1709,7 @@
         <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="287">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -896,6 +896,48 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,                    E.%Knick%null%1,                    G.%Lewith%null%1,                  M.%Dorn%null%1,                  E.%Knick%null%1,                  G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Vinti%Goel%xref no email%1,  Ray%Lovlin%xref no email%1,  Chuck%Chang%xref no email%1,  Jan V.%Slama%xref no email%1,  Richard%Barton%xref no email%1,  Roland%Gahler%xref no email%1,  R.%Bauer%xref no email%1,  L.%Goonewardene%xref no email%1,  Tapan K.%Basu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%1,             Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,                   Bartels%CL%coreGivesNoEmail%1,                   Bauer%R%coreGivesNoEmail%1,                   Brevoort%P%coreGivesNoEmail%1,                   Brinkeborn%RM%coreGivesNoEmail%1,                   Carr%RJ%coreGivesNoEmail%1,                   Ernst%E%coreGivesNoEmail%1,                   Giles%JT%coreGivesNoEmail%1,                   Hoheisel%D%coreGivesNoEmail%1,                   Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,                   Muller-Jakic%B%coreGivesNoEmail%1,                   Stimpel%M%coreGivesNoEmail%1,                   Turner%RB%coreGivesNoEmail%1,                   Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Brigitte%Schulten%xref no email%1,  Michael%Bulitta%xref no email%1,  Brigitta%Ballering-Br\u00fchl%xref no email%1,  Ulrike%K\u00f6ster%xref no email%1,  Michael%Sch\u00e4fer%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%1,             Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                     Hans-Helge%Müller%null%1,                   Wolfram%Grimm%null%1,                   Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%1,             M.%Fahlman%xref no email%1,             H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                    Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                    Andrea%Lourie%NULL%1,                    John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                    R.%Schoop%NULL%1,                    A.%Suter%NULL%1,                    P.%Klein%NULL%1,                    R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                    R. A.%Lea%NULL%1,                    S. S.%Wee%NULL%1,                    M. M.%Hanna%NULL%1,                    L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%1,             Rudolf%Bauer%xref no email%1,             Karin%Woelkart%xref no email%1,             Thomas C.%Hulsey%xref no email%1,             J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                    Leena P.%Shah%NULL%1,                    Richard D.%Gilbert%NULL%1,                    Thomas W.%Ritchey%NULL%1,                    Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Isbaniah%xref no email%1,  W. H.%Wiyono%xref no email%1,  F.%Yunus%xref no email%1,  A.%Setiawati%xref no email%1,  U.%Totzke%xref no email%1,  M. A.%Verbruggen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                     E.%Knick%null%1,                     G.%Lewith%null%1,                   M.%Dorn%null%1,                   E.%Knick%null%1,                   G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1275,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1262,7 +1304,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1291,7 +1333,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1320,7 +1362,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1378,7 +1420,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1407,7 +1449,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1465,7 +1507,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1494,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -1523,7 +1565,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1552,7 +1594,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1581,7 +1623,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1610,7 +1652,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1639,7 +1681,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -1697,7 +1739,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>

--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="348">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -938,6 +938,189 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,                     E.%Knick%null%1,                     G.%Lewith%null%1,                   M.%Dorn%null%1,                   E.%Knick%null%1,                   G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Vinti%Goel%xref no email%0, Ray%Lovlin%xref no email%1, Chuck%Chang%xref no email%1, Jan V.%Slama%xref no email%1, Richard%Barton%xref no email%1, Roland%Gahler%xref no email%1, R.%Bauer%xref no email%1, L.%Goonewardene%xref no email%1, Tapan K.%Basu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[Steven H.%Yale%xref no email%0, Kejian%Liu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,                    Bartels%CL%coreGivesNoEmail%1,                    Bauer%R%coreGivesNoEmail%1,                    Brevoort%P%coreGivesNoEmail%1,                    Brinkeborn%RM%coreGivesNoEmail%1,                    Carr%RJ%coreGivesNoEmail%1,                    Ernst%E%coreGivesNoEmail%1,                    Giles%JT%coreGivesNoEmail%1,                    Hoheisel%D%coreGivesNoEmail%1,                    Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,                    Muller-Jakic%B%coreGivesNoEmail%1,                    Stimpel%M%coreGivesNoEmail%1,                    Turner%RB%coreGivesNoEmail%1,                    Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Brigitte%Schulten%xref no email%0, Michael%Bulitta%xref no email%1, Brigitta%Ballering-Br\u00fchl%xref no email%1, Ulrike%K\u00f6ster%xref no email%1, Michael%Sch\u00e4fer%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Georg Thieme Verlag KG</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American College of Physicians</t>
+  </si>
+  <si>
+    <t>[G. Frank%Lindenmuth%xref no email%0, Elise B.%Lindenmuth%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Mary Ann Liebert Inc</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                      Hans-Helge%Müller%null%1,                    Wolfram%Grimm%null%1,                    Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[D.%Melchart%xref no email%0]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: CLOCKSS Archive</t>
+  </si>
+  <si>
+    <t>[H.%Hall%xref no email%0, M.%Fahlman%xref no email%1, H.%Engels%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                     Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                     Andrea%Lourie%NULL%1,                     John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                     R.%Schoop%NULL%1,                     A.%Suter%NULL%1,                     P.%Klein%NULL%1,                     R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                     R. A.%Lea%NULL%1,                     S. S.%Wee%NULL%1,                     M. M.%Hanna%NULL%1,                     L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ronald B.%Turner%xref no email%0, Rudolf%Bauer%xref no email%1, Karin%Woelkart%xref no email%1, Thomas C.%Hulsey%xref no email%1, J. David%Gangemi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                     Leena P.%Shah%NULL%1,                     Richard D.%Gilbert%NULL%1,                     Thomas W.%Ritchey%NULL%1,                     Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Isbaniah%xref no email%0, W. H.%Wiyono%xref no email%1, F.%Yunus%xref no email%1, A.%Setiawati%xref no email%1, U.%Totzke%xref no email%1, M. A.%Verbruggen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Hindawi Limited</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                      E.%Knick%null%1,                      G.%Lewith%null%1,                    M.%Dorn%null%1,                    E.%Knick%null%1,                    G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,                     Bartels%CL%coreGivesNoEmail%1,                     Bauer%R%coreGivesNoEmail%1,                     Brevoort%P%coreGivesNoEmail%1,                     Brinkeborn%RM%coreGivesNoEmail%1,                     Carr%RJ%coreGivesNoEmail%1,                     Ernst%E%coreGivesNoEmail%1,                     Giles%JT%coreGivesNoEmail%1,                     Hoheisel%D%coreGivesNoEmail%1,                     Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,                     Muller-Jakic%B%coreGivesNoEmail%1,                     Stimpel%M%coreGivesNoEmail%1,                     Turner%RB%coreGivesNoEmail%1,                     Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                       Hans-Helge%Müller%null%1,                     Wolfram%Grimm%null%1,                     Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                      Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                      Andrea%Lourie%NULL%1,                      John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                      R.%Schoop%NULL%1,                      A.%Suter%NULL%1,                      P.%Klein%NULL%1,                      R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                      R. A.%Lea%NULL%1,                      S. S.%Wee%NULL%1,                      M. M.%Hanna%NULL%1,                      L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                      Leena P.%Shah%NULL%1,                      Richard D.%Gilbert%NULL%1,                      Thomas W.%Ritchey%NULL%1,                      Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                       E.%Knick%null%1,                       G.%Lewith%null%1,                     M.%Dorn%null%1,                     E.%Knick%null%1,                     G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Vinti%Goel%xref no email%1,   Ray%Lovlin%xref no email%1,   Chuck%Chang%xref no email%1,   Jan V.%Slama%xref no email%1,   Richard%Barton%xref no email%1,   Roland%Gahler%xref no email%1,   R.%Bauer%xref no email%1,   L.%Goonewardene%xref no email%1,   Tapan K.%Basu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,                      Bartels%CL%coreGivesNoEmail%1,                      Bauer%R%coreGivesNoEmail%1,                      Brevoort%P%coreGivesNoEmail%1,                      Brinkeborn%RM%coreGivesNoEmail%1,                      Carr%RJ%coreGivesNoEmail%1,                      Ernst%E%coreGivesNoEmail%1,                      Giles%JT%coreGivesNoEmail%1,                      Hoheisel%D%coreGivesNoEmail%1,                      Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,                      Muller-Jakic%B%coreGivesNoEmail%1,                      Stimpel%M%coreGivesNoEmail%1,                      Turner%RB%coreGivesNoEmail%1,                      Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Brigitte%Schulten%xref no email%1,   Michael%Bulitta%xref no email%1,   Brigitta%Ballering-Br\u00fchl%xref no email%1,   Ulrike%K\u00f6ster%xref no email%1,   Michael%Sch\u00e4fer%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                        Hans-Helge%Müller%null%1,                      Wolfram%Grimm%null%1,                      Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                       Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                       Andrea%Lourie%NULL%1,                       John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                       R.%Schoop%NULL%1,                       A.%Suter%NULL%1,                       P.%Klein%NULL%1,                       R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                       R. A.%Lea%NULL%1,                       S. S.%Wee%NULL%1,                       M. M.%Hanna%NULL%1,                       L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                       Leena P.%Shah%NULL%1,                       Richard D.%Gilbert%NULL%1,                       Thomas W.%Ritchey%NULL%1,                       Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Isbaniah%xref no email%1,   W. H.%Wiyono%xref no email%1,   F.%Yunus%xref no email%1,   A.%Setiawati%xref no email%1,   U.%Totzke%xref no email%1,   M. A.%Verbruggen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                        E.%Knick%null%1,                        G.%Lewith%null%1,                      M.%Dorn%null%1,                      E.%Knick%null%1,                      G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Vinti%Goel%xref no email%1,    Ray%Lovlin%xref no email%1,    Chuck%Chang%xref no email%1,    Jan V.%Slama%xref no email%1,    Richard%Barton%xref no email%1,    Roland%Gahler%xref no email%1,    R.%Bauer%xref no email%1,    L.%Goonewardene%xref no email%1,    Tapan K.%Basu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,                       Bartels%CL%coreGivesNoEmail%1,                       Bauer%R%coreGivesNoEmail%1,                       Brevoort%P%coreGivesNoEmail%1,                       Brinkeborn%RM%coreGivesNoEmail%1,                       Carr%RJ%coreGivesNoEmail%1,                       Ernst%E%coreGivesNoEmail%1,                       Giles%JT%coreGivesNoEmail%1,                       Hoheisel%D%coreGivesNoEmail%1,                       Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,                       Muller-Jakic%B%coreGivesNoEmail%1,                       Stimpel%M%coreGivesNoEmail%1,                       Turner%RB%coreGivesNoEmail%1,                       Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Brigitte%Schulten%xref no email%1,    Michael%Bulitta%xref no email%1,    Brigitta%Ballering-Br\u00fchl%xref no email%1,    Ulrike%K\u00f6ster%xref no email%1,    Michael%Sch\u00e4fer%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                         Hans-Helge%Müller%null%1,                       Wolfram%Grimm%null%1,                       Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                        Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                        Andrea%Lourie%NULL%1,                        John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                        R.%Schoop%NULL%1,                        A.%Suter%NULL%1,                        P.%Klein%NULL%1,                        R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                        R. A.%Lea%NULL%1,                        S. S.%Wee%NULL%1,                        M. M.%Hanna%NULL%1,                        L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                        Leena P.%Shah%NULL%1,                        Richard D.%Gilbert%NULL%1,                        Thomas W.%Ritchey%NULL%1,                        Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Isbaniah%xref no email%1,    W. H.%Wiyono%xref no email%1,    F.%Yunus%xref no email%1,    A.%Setiawati%xref no email%1,    U.%Totzke%xref no email%1,    M. A.%Verbruggen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                         E.%Knick%null%1,                         G.%Lewith%null%1,                       M.%Dorn%null%1,                       E.%Knick%null%1,                       G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Vinti%Goel%xref no email%1,     Ray%Lovlin%xref no email%1,     Chuck%Chang%xref no email%1,     Jan V.%Slama%xref no email%1,     Richard%Barton%xref no email%1,     Roland%Gahler%xref no email%1,     R.%Bauer%xref no email%1,     L.%Goonewardene%xref no email%1,     Tapan K.%Basu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,                        Bartels%CL%coreGivesNoEmail%1,                        Bauer%R%coreGivesNoEmail%1,                        Brevoort%P%coreGivesNoEmail%1,                        Brinkeborn%RM%coreGivesNoEmail%1,                        Carr%RJ%coreGivesNoEmail%1,                        Ernst%E%coreGivesNoEmail%1,                        Giles%JT%coreGivesNoEmail%1,                        Hoheisel%D%coreGivesNoEmail%1,                        Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,                        Muller-Jakic%B%coreGivesNoEmail%1,                        Stimpel%M%coreGivesNoEmail%1,                        Turner%RB%coreGivesNoEmail%1,                        Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Brigitte%Schulten%xref no email%1,     Michael%Bulitta%xref no email%1,     Brigitta%Ballering-Br\u00fchl%xref no email%1,     Ulrike%K\u00f6ster%xref no email%1,     Michael%Sch\u00e4fer%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                          Hans-Helge%Müller%null%1,                        Wolfram%Grimm%null%1,                        Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                         Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                         Andrea%Lourie%NULL%1,                         John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                         R.%Schoop%NULL%1,                         A.%Suter%NULL%1,                         P.%Klein%NULL%1,                         R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                         R. A.%Lea%NULL%1,                         S. S.%Wee%NULL%1,                         M. M.%Hanna%NULL%1,                         L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                         Leena P.%Shah%NULL%1,                         Richard D.%Gilbert%NULL%1,                         Thomas W.%Ritchey%NULL%1,                         Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Isbaniah%xref no email%1,     W. H.%Wiyono%xref no email%1,     F.%Yunus%xref no email%1,     A.%Setiawati%xref no email%1,     U.%Totzke%xref no email%1,     M. A.%Verbruggen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                          E.%Knick%null%1,                          G.%Lewith%null%1,                        M.%Dorn%null%1,                        E.%Knick%null%1,                        G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1260,6 +1443,9 @@
       <c r="I1" t="s">
         <v>76</v>
       </c>
+      <c r="J1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1275,7 +1461,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1288,6 +1474,9 @@
       </c>
       <c r="I2" t="s">
         <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="3">
@@ -1304,7 +1493,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1313,10 +1502,13 @@
         <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="I3" t="s">
-        <v>256</v>
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="4">
@@ -1333,7 +1525,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1346,6 +1538,9 @@
       </c>
       <c r="I4" t="s">
         <v>256</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1362,7 +1557,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1375,6 +1570,9 @@
       </c>
       <c r="I5" t="s">
         <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="6">
@@ -1400,10 +1598,13 @@
         <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="I6" t="s">
-        <v>256</v>
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="7">
@@ -1420,7 +1621,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1429,10 +1630,13 @@
         <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>254</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="8">
@@ -1449,7 +1653,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1462,6 +1666,9 @@
       </c>
       <c r="I8" t="s">
         <v>256</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -1487,10 +1694,13 @@
         <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="10">
@@ -1507,7 +1717,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1516,10 +1726,13 @@
         <v>117</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="I10" t="s">
-        <v>256</v>
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="11">
@@ -1536,7 +1749,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -1549,6 +1762,9 @@
       </c>
       <c r="I11" t="s">
         <v>264</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -1565,7 +1781,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1578,6 +1794,9 @@
       </c>
       <c r="I12" t="s">
         <v>266</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -1594,7 +1813,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1607,6 +1826,9 @@
       </c>
       <c r="I13" t="s">
         <v>266</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -1623,7 +1845,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1632,10 +1854,13 @@
         <v>117</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="I14" t="s">
-        <v>256</v>
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15">
@@ -1652,7 +1877,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1665,6 +1890,9 @@
       </c>
       <c r="I15" t="s">
         <v>266</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -1681,7 +1909,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -1694,6 +1922,9 @@
       </c>
       <c r="I16" t="s">
         <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="17">
@@ -1719,10 +1950,13 @@
         <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="I17" t="s">
-        <v>256</v>
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="18">
@@ -1739,7 +1973,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
@@ -1752,6 +1986,9 @@
       </c>
       <c r="I18" t="s">
         <v>256</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/62.xlsx
+++ b/Covid_19_Dataset_and_References/References/62.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3369" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3657" uniqueCount="368">
   <si>
     <t xml:space="preserve">Doi </t>
   </si>
@@ -1121,6 +1121,66 @@
   </si>
   <si>
     <t>[ M.%Dorn%null%1,                          E.%Knick%null%1,                          G.%Lewith%null%1,                        M.%Dorn%null%1,                        E.%Knick%null%1,                        G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Vinti%Goel%xref no email%1,      Ray%Lovlin%xref no email%1,      Chuck%Chang%xref no email%1,      Jan V.%Slama%xref no email%1,      Richard%Barton%xref no email%1,      Roland%Gahler%xref no email%1,      R.%Bauer%xref no email%1,      L.%Goonewardene%xref no email%1,      Tapan K.%Basu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,                         Bartels%CL%coreGivesNoEmail%1,                         Bauer%R%coreGivesNoEmail%1,                         Brevoort%P%coreGivesNoEmail%1,                         Brinkeborn%RM%coreGivesNoEmail%1,                         Carr%RJ%coreGivesNoEmail%1,                         Ernst%E%coreGivesNoEmail%1,                         Giles%JT%coreGivesNoEmail%1,                         Hoheisel%D%coreGivesNoEmail%1,                         Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,                         Muller-Jakic%B%coreGivesNoEmail%1,                         Stimpel%M%coreGivesNoEmail%1,                         Turner%RB%coreGivesNoEmail%1,                         Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Brigitte%Schulten%xref no email%1,      Michael%Bulitta%xref no email%1,      Brigitta%Ballering-Br\u00fchl%xref no email%1,      Ulrike%K\u00f6ster%xref no email%1,      Michael%Sch\u00e4fer%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                           Hans-Helge%Müller%null%1,                         Wolfram%Grimm%null%1,                         Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                          Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                          Andrea%Lourie%NULL%1,                          John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                          R.%Schoop%NULL%1,                          A.%Suter%NULL%1,                          P.%Klein%NULL%1,                          R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                          R. A.%Lea%NULL%1,                          S. S.%Wee%NULL%1,                          M. M.%Hanna%NULL%1,                          L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                          Leena P.%Shah%NULL%1,                          Richard D.%Gilbert%NULL%1,                          Thomas W.%Ritchey%NULL%1,                          Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Isbaniah%xref no email%1,      W. H.%Wiyono%xref no email%1,      F.%Yunus%xref no email%1,      A.%Setiawati%xref no email%1,      U.%Totzke%xref no email%1,      M. A.%Verbruggen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                           E.%Knick%null%1,                           G.%Lewith%null%1,                         M.%Dorn%null%1,                         E.%Knick%null%1,                         G.%Lewith%null%1]</t>
+  </si>
+  <si>
+    <t>[Vinti%Goel%xref no email%1,       Ray%Lovlin%xref no email%1,       Chuck%Chang%xref no email%1,       Jan V.%Slama%xref no email%1,       Richard%Barton%xref no email%1,       Roland%Gahler%xref no email%1,       R.%Bauer%xref no email%1,       L.%Goonewardene%xref no email%1,       Tapan K.%Basu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Barret%BP%coreGivesNoEmail%1,                          Bartels%CL%coreGivesNoEmail%1,                          Bauer%R%coreGivesNoEmail%1,                          Brevoort%P%coreGivesNoEmail%1,                          Brinkeborn%RM%coreGivesNoEmail%1,                          Carr%RJ%coreGivesNoEmail%1,                          Ernst%E%coreGivesNoEmail%1,                          Giles%JT%coreGivesNoEmail%1,                          Hoheisel%D%coreGivesNoEmail%1,                          Management%of Influenza in the Southern Hemisphere Trialists Study Group%coreGivesNoEmail%1,                          Muller-Jakic%B%coreGivesNoEmail%1,                          Stimpel%M%coreGivesNoEmail%1,                          Turner%RB%coreGivesNoEmail%1,                          Winther%B%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Brigitte%Schulten%xref no email%1,       Michael%Bulitta%xref no email%1,       Brigitta%Ballering-Br\u00fchl%xref no email%1,       Ulrike%K\u00f6ster%xref no email%1,       Michael%Sch\u00e4fer%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ Wolfram%Grimm%null%1,                            Hans-Helge%Müller%null%1,                          Wolfram%Grimm%null%1,                          Hans-Helge%Müller%null%1]</t>
+  </si>
+  <si>
+    <t>[Joelle%O’Neil%NULL%1,                           Susan%Hughes%susan.hughes@fresno.ucsf.edu%1,                           Andrea%Lourie%NULL%1,                           John%Zweifler%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M.%Jawad%NULL%1,                           R.%Schoop%NULL%1,                           A.%Suter%NULL%1,                           P.%Klein%NULL%1,                           R.%Eccles%NULL%1]</t>
+  </si>
+  <si>
+    <t>[E.%Tiralongo%NULL%1,                           R. A.%Lea%NULL%1,                           S. S.%Wee%NULL%1,                           M. M.%Hanna%NULL%1,                           L. R.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Steven J.%Sperber%ssperber@humed.com%1,                           Leena P.%Shah%NULL%1,                           Richard D.%Gilbert%NULL%1,                           Thomas W.%Ritchey%NULL%1,                           Arnold S.%Monto%NULL%1]</t>
+  </si>
+  <si>
+    <t>[F.%Isbaniah%xref no email%1,       W. H.%Wiyono%xref no email%1,       F.%Yunus%xref no email%1,       A.%Setiawati%xref no email%1,       U.%Totzke%xref no email%1,       M. A.%Verbruggen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[ M.%Dorn%null%1,                            E.%Knick%null%1,                            G.%Lewith%null%1,                          M.%Dorn%null%1,                          E.%Knick%null%1,                          G.%Lewith%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1521,7 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1493,7 +1553,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1525,7 +1585,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1557,7 +1617,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -1621,7 +1681,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1653,7 +1713,7 @@
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1717,7 +1777,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1749,7 +1809,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
@@ -1781,7 +1841,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="F12" t="s">
         <v>47</v>
@@ -1813,7 +1873,7 @@
         <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="F13" t="s">
         <v>52</v>
@@ -1845,7 +1905,7 @@
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1877,7 +1937,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1909,7 +1969,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -1973,7 +2033,7 @@
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
